--- a/app/rep/exportaciones Junio 2014.xlsx
+++ b/app/rep/exportaciones Junio 2014.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>País Destino</t>
   </si>
@@ -80,12 +80,12 @@
     <t>FRANCIA</t>
   </si>
   <si>
+    <t>FINLANDIA</t>
+  </si>
+  <si>
     <t>BRASIL</t>
   </si>
   <si>
-    <t>FINLANDIA</t>
-  </si>
-  <si>
     <t>SUECIA</t>
   </si>
   <si>
@@ -149,15 +149,15 @@
     <t>DINAMARCA</t>
   </si>
   <si>
+    <t>POLONIA</t>
+  </si>
+  <si>
+    <t>HONG KONG</t>
+  </si>
+  <si>
     <t>ARGENTINA</t>
   </si>
   <si>
-    <t>POLONIA</t>
-  </si>
-  <si>
-    <t>HONG KONG</t>
-  </si>
-  <si>
     <t>ARGELIA</t>
   </si>
   <si>
@@ -197,12 +197,12 @@
     <t>UCRANIA</t>
   </si>
   <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
     <t>ARUBA</t>
   </si>
   <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
     <t>ZONA FRANCA BARRANQUILLA</t>
   </si>
   <si>
@@ -227,12 +227,12 @@
     <t>MARRUECOS</t>
   </si>
   <si>
+    <t>GUYANA</t>
+  </si>
+  <si>
     <t>EL SALVADOR</t>
   </si>
   <si>
-    <t>GUYANA</t>
-  </si>
-  <si>
     <t>ESTONIA</t>
   </si>
   <si>
@@ -425,21 +425,21 @@
     <t>MAURICIO</t>
   </si>
   <si>
+    <t>FIJI - FIDJI</t>
+  </si>
+  <si>
+    <t>ISLANDIA</t>
+  </si>
+  <si>
+    <t>SERBIA Y MONTENEGRO</t>
+  </si>
+  <si>
+    <t>COMORAS</t>
+  </si>
+  <si>
     <t>ZONA FRANCA LA CANDELARIA - CTG</t>
   </si>
   <si>
-    <t>FIJI - FIDJI</t>
-  </si>
-  <si>
-    <t>ISLANDIA</t>
-  </si>
-  <si>
-    <t>SERBIA Y MONTENEGRO</t>
-  </si>
-  <si>
-    <t>COMORAS</t>
-  </si>
-  <si>
     <t>UZBEKISTAN</t>
   </si>
   <si>
@@ -509,31 +509,28 @@
     <t>SEYCHELLES</t>
   </si>
   <si>
+    <t>ZONA FRANCA RIONEGRO - MEDELLIN</t>
+  </si>
+  <si>
+    <t>MOLDAVIA</t>
+  </si>
+  <si>
+    <t>CHIPRE</t>
+  </si>
+  <si>
+    <t>PALAU ISLAS</t>
+  </si>
+  <si>
+    <t>MALDIVAS</t>
+  </si>
+  <si>
+    <t>TURKMENISTAN</t>
+  </si>
+  <si>
+    <t>TADJIKISTAN</t>
+  </si>
+  <si>
     <t>ZONA FRANCA PALMASECA - CALI</t>
-  </si>
-  <si>
-    <t>ZONA FRANCA RIONEGRO - MEDELLIN</t>
-  </si>
-  <si>
-    <t>MOLDAVIA</t>
-  </si>
-  <si>
-    <t>CHIPRE</t>
-  </si>
-  <si>
-    <t>PALAU ISLAS</t>
-  </si>
-  <si>
-    <t>MALDIVAS</t>
-  </si>
-  <si>
-    <t>TURKMENISTAN</t>
-  </si>
-  <si>
-    <t>TADJIKISTAN</t>
-  </si>
-  <si>
-    <t>ZONA FRANCA PACIFICO - CLO</t>
   </si>
 </sst>
 </file>
@@ -896,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C4" sqref="C4"/>
@@ -925,10 +922,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2270226166.14</v>
+        <v>2266948412.38</v>
       </c>
       <c r="C5">
-        <v>37.35</v>
+        <v>37.42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -936,10 +933,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>374943587.73</v>
+        <v>371029804.35</v>
       </c>
       <c r="C6">
-        <v>6.17</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -950,7 +947,7 @@
         <v>351126626.37</v>
       </c>
       <c r="C7">
-        <v>5.78</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -961,7 +958,7 @@
         <v>313469123.39</v>
       </c>
       <c r="C8">
-        <v>5.16</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -969,10 +966,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>263587144.96</v>
+        <v>263524865.34</v>
       </c>
       <c r="C9">
-        <v>4.34</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -980,10 +977,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>256747954.53</v>
+        <v>256666851.56</v>
       </c>
       <c r="C10">
-        <v>4.22</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -991,10 +988,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>239201698.3</v>
+        <v>239168010.48</v>
       </c>
       <c r="C11">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1002,10 +999,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>199619098.12</v>
+        <v>199502704.25</v>
       </c>
       <c r="C12">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1013,10 +1010,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>161877631.79</v>
+        <v>161858521.38</v>
       </c>
       <c r="C13">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1024,10 +1021,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>156149515.5</v>
+        <v>156707697.95</v>
       </c>
       <c r="C14">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1035,10 +1032,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>142401432.04</v>
+        <v>141421277.68</v>
       </c>
       <c r="C15">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1046,10 +1043,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>130052216.32</v>
+        <v>128908280.91</v>
       </c>
       <c r="C16">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1057,10 +1054,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>125937618.51</v>
+        <v>125872890.95</v>
       </c>
       <c r="C17">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1068,10 +1065,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>95109414.3</v>
+        <v>94031108.07</v>
       </c>
       <c r="C18">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1082,7 +1079,7 @@
         <v>87085461.6</v>
       </c>
       <c r="C19">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1090,7 +1087,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>68615535.83</v>
+        <v>68570953.44</v>
       </c>
       <c r="C20">
         <v>1.13</v>
@@ -1123,10 +1120,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>46843886.67</v>
+        <v>44438949.57</v>
       </c>
       <c r="C23">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1134,10 +1131,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>44438949.57</v>
+        <v>38066294.07</v>
       </c>
       <c r="C24">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1156,7 +1153,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32992082.83</v>
+        <v>32853113.08</v>
       </c>
       <c r="C26">
         <v>0.54</v>
@@ -1167,7 +1164,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31448472.03</v>
+        <v>31448204.38</v>
       </c>
       <c r="C27">
         <v>0.52</v>
@@ -1192,7 +1189,7 @@
         <v>28801295.59</v>
       </c>
       <c r="C29">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1211,7 +1208,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>27783517.78</v>
+        <v>27732622.78</v>
       </c>
       <c r="C31">
         <v>0.46</v>
@@ -1266,7 +1263,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>14980528.99</v>
+        <v>14932891.29</v>
       </c>
       <c r="C36">
         <v>0.25</v>
@@ -1310,7 +1307,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>13391326.8</v>
+        <v>13390016.8</v>
       </c>
       <c r="C40">
         <v>0.22</v>
@@ -1332,7 +1329,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>10352511.31</v>
+        <v>10330502.77</v>
       </c>
       <c r="C42">
         <v>0.17</v>
@@ -1354,7 +1351,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>10210554.19</v>
+        <v>10208904.19</v>
       </c>
       <c r="C44">
         <v>0.17</v>
@@ -1376,10 +1373,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>9425687.77</v>
+        <v>9368610.67</v>
       </c>
       <c r="C46">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1387,7 +1384,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>9368610.67</v>
+        <v>9356787.91</v>
       </c>
       <c r="C47">
         <v>0.15</v>
@@ -1398,10 +1395,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>9359369.47</v>
+        <v>8430952.16</v>
       </c>
       <c r="C48">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1467,7 +1464,7 @@
         <v>6976899.07</v>
       </c>
       <c r="C54">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1475,7 +1472,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6708979.35</v>
+        <v>6706158.23</v>
       </c>
       <c r="C55">
         <v>0.11</v>
@@ -1508,7 +1505,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5683755.74</v>
+        <v>5481604.53</v>
       </c>
       <c r="C58">
         <v>0.09</v>
@@ -1552,7 +1549,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4643808.49</v>
+        <v>4549229.19</v>
       </c>
       <c r="C62">
         <v>0.08</v>
@@ -1563,10 +1560,10 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>4549229.19</v>
+        <v>4544958.13</v>
       </c>
       <c r="C63">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1585,7 +1582,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>4341871.59</v>
+        <v>4254384.58</v>
       </c>
       <c r="C65">
         <v>0.07</v>
@@ -1662,7 +1659,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2860160.8</v>
+        <v>2837869.49</v>
       </c>
       <c r="C72">
         <v>0.05</v>
@@ -1673,7 +1670,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2837869.49</v>
+        <v>2812769.05</v>
       </c>
       <c r="C73">
         <v>0.05</v>
@@ -1728,7 +1725,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2459484.44</v>
+        <v>2459421.04</v>
       </c>
       <c r="C78">
         <v>0.04</v>
@@ -1750,7 +1747,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1974575.75</v>
+        <v>1928400.75</v>
       </c>
       <c r="C80">
         <v>0.03</v>
@@ -1838,7 +1835,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1451162.42</v>
+        <v>1445701.99</v>
       </c>
       <c r="C88">
         <v>0.02</v>
@@ -1948,7 +1945,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>885214.57</v>
+        <v>884691.89</v>
       </c>
       <c r="C98">
         <v>0.01</v>
@@ -2361,7 +2358,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>175000.34</v>
+        <v>164768.81</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2369,7 +2366,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>164768.81</v>
+        <v>160581.36</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2377,7 +2374,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>160581.36</v>
+        <v>159807.06</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2385,7 +2382,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>159807.06</v>
+        <v>125611.9</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2393,7 +2390,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>125611.9</v>
+        <v>119371.26</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2585,7 +2582,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6769.87</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2593,7 +2590,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3659</v>
+        <v>3519.23</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2601,7 +2598,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>3519.23</v>
+        <v>3197.86</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2609,7 +2606,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3197.86</v>
+        <v>2944.6</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2617,7 +2614,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>2944.6</v>
+        <v>2875.02</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2625,7 +2622,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>2875.02</v>
+        <v>2042.93</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2633,7 +2630,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>2042.93</v>
+        <v>1046.12</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2641,15 +2638,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1046.12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>474.85</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
